--- a/02. 엑셀자동화/02. xlwings/data1/onlinesale_data/total.xlsx
+++ b/02. 엑셀자동화/02. xlwings/data1/onlinesale_data/total.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python_automation\02. 엑셀자동화\02. xlwings\data1\onlinesale_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -43,12 +48,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -56,8 +61,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -103,15 +115,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -153,7 +173,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -185,9 +205,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -219,6 +240,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -394,14 +416,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="3.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.3984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -415,7 +444,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -432,7 +461,7 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -449,7 +478,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -466,7 +495,7 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -483,7 +512,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -500,7 +529,7 @@
         <v>1750000</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -517,7 +546,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -534,7 +563,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -551,7 +580,7 @@
         <v>1050000</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -568,7 +597,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -585,7 +614,7 @@
         <v>160000</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -602,7 +631,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -619,7 +648,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -636,7 +665,7 @@
         <v>1050000</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -653,7 +682,7 @@
         <v>1400000</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -670,7 +699,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -687,7 +716,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -704,7 +733,7 @@
         <v>240000</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -721,7 +750,7 @@
         <v>160000</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -738,7 +767,7 @@
         <v>160000</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -755,7 +784,7 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -773,6 +802,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/02. 엑셀자동화/02. xlwings/data1/onlinesale_data/total.xlsx
+++ b/02. 엑셀자동화/02. xlwings/data1/onlinesale_data/total.xlsx
@@ -12,14 +12,18 @@
     <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="32인치 모니터" sheetId="5" r:id="rId1"/>
+    <sheet name="기계식 키보드" sheetId="4" r:id="rId2"/>
+    <sheet name="마우스 패드" sheetId="3" r:id="rId3"/>
+    <sheet name="게이밍 마우스" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="8">
   <si>
     <t>제품명</t>
   </si>
@@ -417,9 +421,440 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="13.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.3984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>350000</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>1750000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>350000</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>1050000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>350000</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>1050000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>350000</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>1400000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.3984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>120000</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>120000</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>120000</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>120000</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>120000</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>120000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.3984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>20000</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>20000</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>20000</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>20000</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>20000</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>40000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.3984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>40000</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>40000</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>40000</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>40000</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>40000</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>40000</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>40000</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>160000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
